--- a/tablas/07_TUBOS_Resultado_Apilamiento_Todos.xlsx
+++ b/tablas/07_TUBOS_Resultado_Apilamiento_Todos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7236,12 +7236,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7276,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7396,12 +7396,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7436,12 +7436,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7476,12 +7476,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7516,12 +7516,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7596,12 +7596,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7636,12 +7636,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7676,12 +7676,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7716,12 +7716,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7756,12 +7756,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7836,12 +7836,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7876,12 +7876,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7916,12 +7916,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7956,12 +7956,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -7996,12 +7996,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8076,12 +8076,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8116,12 +8116,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8156,12 +8156,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8196,12 +8196,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8236,12 +8236,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8316,12 +8316,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8356,12 +8356,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>20x15</t>
+          <t>40x15</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>arriba</t>
+          <t>abajo</t>
         </is>
       </c>
     </row>
@@ -8396,10 +8396,2410 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
+          <t>40x15</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>abajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
           <t>20x15</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>7</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>7</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>4</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>7</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>5</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>3</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E206" t="n">
+        <v>7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>7</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>4</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>5</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E210" t="n">
+        <v>7</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>6</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3</v>
+      </c>
+      <c r="E211" t="n">
+        <v>7</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>7</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" t="n">
+        <v>7</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3</v>
+      </c>
+      <c r="E214" t="n">
+        <v>7</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3</v>
+      </c>
+      <c r="E215" t="n">
+        <v>7</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>7</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3</v>
+      </c>
+      <c r="E217" t="n">
+        <v>7</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>7</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3</v>
+      </c>
+      <c r="E219" t="n">
+        <v>7</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3</v>
+      </c>
+      <c r="E220" t="n">
+        <v>7</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3</v>
+      </c>
+      <c r="E221" t="n">
+        <v>7</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>7</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>6</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>7</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>3</v>
+      </c>
+      <c r="E225" t="n">
+        <v>7</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3</v>
+      </c>
+      <c r="E226" t="n">
+        <v>7</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>6</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>7</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3</v>
+      </c>
+      <c r="E228" t="n">
+        <v>7</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>6</v>
+      </c>
+      <c r="D229" t="n">
+        <v>3</v>
+      </c>
+      <c r="E229" t="n">
+        <v>7</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>MTR02-6</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>7</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E232" t="n">
+        <v>7</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>4</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2</v>
+      </c>
+      <c r="E233" t="n">
+        <v>7</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>7</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Grada izquierda</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>6</v>
+      </c>
+      <c r="C235" t="n">
+        <v>6</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3</v>
+      </c>
+      <c r="E235" t="n">
+        <v>7</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E236" t="n">
+        <v>7</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>7</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>3</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E238" t="n">
+        <v>7</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>4</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>7</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>5</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>7</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Grada derecha</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>6</v>
+      </c>
+      <c r="C241" t="n">
+        <v>6</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3</v>
+      </c>
+      <c r="E241" t="n">
+        <v>7</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3</v>
+      </c>
+      <c r="E242" t="n">
+        <v>7</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3</v>
+      </c>
+      <c r="E243" t="n">
+        <v>7</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3</v>
+      </c>
+      <c r="E244" t="n">
+        <v>7</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>6</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3</v>
+      </c>
+      <c r="E245" t="n">
+        <v>7</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3</v>
+      </c>
+      <c r="E246" t="n">
+        <v>7</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>6</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3</v>
+      </c>
+      <c r="E247" t="n">
+        <v>7</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>6</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3</v>
+      </c>
+      <c r="E249" t="n">
+        <v>7</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>6</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3</v>
+      </c>
+      <c r="E250" t="n">
+        <v>7</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3</v>
+      </c>
+      <c r="E251" t="n">
+        <v>7</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>3</v>
+      </c>
+      <c r="E252" t="n">
+        <v>7</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>6</v>
+      </c>
+      <c r="D253" t="n">
+        <v>3</v>
+      </c>
+      <c r="E253" t="n">
+        <v>7</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3</v>
+      </c>
+      <c r="E254" t="n">
+        <v>7</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>3</v>
+      </c>
+      <c r="E255" t="n">
+        <v>7</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>6</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3</v>
+      </c>
+      <c r="E256" t="n">
+        <v>7</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>6</v>
+      </c>
+      <c r="D257" t="n">
+        <v>3</v>
+      </c>
+      <c r="E257" t="n">
+        <v>7</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3</v>
+      </c>
+      <c r="E258" t="n">
+        <v>7</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>arriba</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Centro plano</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>3</v>
+      </c>
+      <c r="E259" t="n">
+        <v>7</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>MTR02-7</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
         <is>
           <t>arriba</t>
         </is>
